--- a/Tau_Total.xlsx
+++ b/Tau_Total.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="13875" windowHeight="8820"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="13875" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="66">
   <si>
     <t>Exp_Name</t>
-  </si>
-  <si>
-    <t>20171003_cycD1</t>
   </si>
   <si>
     <t>20171003_cycE1</t>
@@ -194,12 +191,6 @@
   </si>
   <si>
     <t>R_Coeff</t>
-  </si>
-  <si>
-    <t>20170926_cycD1</t>
-  </si>
-  <si>
-    <t>20170926_cycE1</t>
   </si>
   <si>
     <t>20171024_JS_CycD1</t>
@@ -556,7 +547,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
@@ -570,42 +561,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5.4112702476002666E-2</v>
@@ -625,16 +616,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>5.1505392919052227E-2</v>
@@ -654,16 +645,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>4.6959512395913665E-2</v>
@@ -683,16 +674,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>2.1308093326258892E-2</v>
@@ -712,16 +703,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2.542408536281647E-2</v>
@@ -741,16 +732,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>1.955483603940986E-2</v>
@@ -770,16 +761,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>5.4179904118334739E-2</v>
@@ -799,16 +790,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>4.8691470626116354E-2</v>
@@ -828,16 +819,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>4.9445691124246523E-2</v>
@@ -857,16 +848,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>5.289089591594754E-2</v>
@@ -886,16 +877,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>4.9863817761692839E-2</v>
@@ -915,16 +906,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>4.7254535211835577E-2</v>
@@ -944,16 +935,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>-1.1223510373373298E-3</v>
@@ -973,16 +964,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>-1.2626054581686971E-2</v>
@@ -1002,16 +993,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>-1.1989540382765732E-2</v>
@@ -1031,16 +1022,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>5.5087766829372387E-2</v>
@@ -1060,16 +1051,16 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>5.0490210891392398E-2</v>
@@ -1089,16 +1080,16 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>4.868973295048977E-2</v>
@@ -1118,16 +1109,16 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>3.0530403486261366E-2</v>
@@ -1147,16 +1138,16 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>3.1258446251863199E-2</v>
@@ -1176,16 +1167,16 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>2.7247939734249955E-2</v>
@@ -1205,16 +1196,16 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>5.4754379657016121E-2</v>
@@ -1234,16 +1225,16 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24">
         <v>5.1643166625829712E-2</v>
@@ -1263,16 +1254,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>4.3442483452758925E-2</v>
@@ -1292,16 +1283,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>5.4894496513512796E-2</v>
@@ -1321,16 +1312,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>5.1137991321162278E-2</v>
@@ -1350,16 +1341,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28">
         <v>4.7026077578475323E-2</v>
@@ -1379,16 +1370,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>-1.801132079827971E-2</v>
@@ -1408,16 +1399,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>-1.7518373814704766E-2</v>
@@ -1437,16 +1428,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>-1.5079282251996316E-2</v>
@@ -1466,16 +1457,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32">
         <v>4.1355153429022323E-2</v>
@@ -1495,16 +1486,16 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>4.1669223519448552E-2</v>
@@ -1524,16 +1515,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>4.2403267331216167E-2</v>
@@ -1553,16 +1544,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>2.0558881319142918E-2</v>
@@ -1582,16 +1573,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>2.0290763305031531E-2</v>
@@ -1611,16 +1602,16 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>2.1227390780228391E-2</v>
@@ -1640,16 +1631,16 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>4.3762763105516508E-2</v>
@@ -1669,16 +1660,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>4.2757314393779208E-2</v>
@@ -1698,16 +1689,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>4.2258584295197563E-2</v>
@@ -1727,16 +1718,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41">
         <v>4.3039977950062355E-2</v>
@@ -1756,16 +1747,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>4.1075499559913881E-2</v>
@@ -1785,16 +1776,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>4.1140550594231946E-2</v>
@@ -1814,16 +1805,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>-1.9293420964447534E-2</v>
@@ -1843,16 +1834,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45">
         <v>-1.9575134991896295E-2</v>
@@ -1872,16 +1863,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46">
         <v>-2.2033417260210249E-2</v>
@@ -1901,16 +1892,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>4.347041241340819E-2</v>
@@ -1930,16 +1921,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <v>4.3946968775560875E-2</v>
@@ -1959,16 +1950,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49">
         <v>4.0323085393717352E-2</v>
@@ -1988,16 +1979,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>2.7254382270842842E-2</v>
@@ -2017,16 +2008,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51">
         <v>2.7089866043392585E-2</v>
@@ -2046,16 +2037,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>2.5729401601784219E-2</v>
@@ -2075,16 +2066,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>4.8298272916718947E-2</v>
@@ -2104,16 +2095,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>4.7440577988658972E-2</v>
@@ -2133,16 +2124,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E55">
         <v>4.3128303447980444E-2</v>
@@ -2162,16 +2153,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E56">
         <v>4.3019644437067565E-2</v>
@@ -2191,16 +2182,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E57">
         <v>4.3699870728444765E-2</v>
@@ -2220,16 +2211,16 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58">
         <v>4.0641167776657924E-2</v>
@@ -2249,16 +2240,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E59">
         <v>-1.4002392807675072E-2</v>
@@ -2278,16 +2269,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60">
         <v>-1.3969052223035777E-2</v>
@@ -2307,16 +2298,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>-1.2781004421338525E-2</v>
@@ -2336,16 +2327,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>8.2173507361718204E-2</v>
@@ -2365,16 +2356,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63">
         <v>8.1234146129224707E-2</v>
@@ -2394,16 +2385,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>8.1643045582463797E-2</v>
@@ -2423,16 +2414,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E65">
         <v>4.5137477597159671E-2</v>
@@ -2452,16 +2443,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>4.517103355302992E-2</v>
@@ -2481,16 +2472,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>4.5814124357435204E-2</v>
@@ -2510,16 +2501,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>8.1926115158874574E-2</v>
@@ -2539,16 +2530,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>8.3904385568960974E-2</v>
@@ -2568,16 +2559,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>8.0499463290660045E-2</v>
@@ -2597,16 +2588,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>8.2814219451166182E-2</v>
@@ -2626,16 +2617,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>8.2542352094745378E-2</v>
@@ -2655,16 +2646,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73">
         <v>7.8391082010127705E-2</v>
@@ -2684,16 +2675,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E74">
         <v>1.032875666901065E-2</v>
@@ -2713,16 +2704,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75">
         <v>1.4007307189159346E-2</v>
@@ -2742,16 +2733,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76">
         <v>1.1221402984221645E-2</v>
@@ -2771,16 +2762,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>8.398629434195666E-2</v>
@@ -2800,16 +2791,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>7.2318858011369294E-2</v>
@@ -2829,16 +2820,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79">
         <v>8.0410971322591937E-2</v>
@@ -2858,16 +2849,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80">
         <v>4.9595701165085881E-2</v>
@@ -2887,16 +2878,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E81">
         <v>4.9254514644311027E-2</v>
@@ -2916,16 +2907,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E82">
         <v>4.9192227115935912E-2</v>
@@ -2945,16 +2936,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E83">
         <v>8.0572831631080227E-2</v>
@@ -2974,16 +2965,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84">
         <v>8.2327198536248952E-2</v>
@@ -3003,16 +2994,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E85">
         <v>7.9964652203388345E-2</v>
@@ -3032,16 +3023,16 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86">
         <v>7.9481345673423132E-2</v>
@@ -3061,16 +3052,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E87">
         <v>7.8803029585933826E-2</v>
@@ -3090,16 +3081,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88">
         <v>7.7211315185572504E-2</v>
@@ -3119,16 +3110,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E89">
         <v>1.4285331939758365E-2</v>
@@ -3148,16 +3139,16 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E90">
         <v>1.5338729834118863E-2</v>
@@ -3177,16 +3168,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E91">
         <v>1.1346181684177205E-2</v>
@@ -3206,16 +3197,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92">
         <v>6.6267277695372204E-2</v>
@@ -3235,16 +3226,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E93">
         <v>6.5443005585844413E-2</v>
@@ -3264,16 +3255,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>6.8920697017415836E-2</v>
@@ -3293,16 +3284,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>3.1937452758361316E-2</v>
@@ -3322,16 +3313,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E96">
         <v>3.2599737412331131E-2</v>
@@ -3351,16 +3342,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>3.2791274383690727E-2</v>
@@ -3380,16 +3371,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98">
         <v>6.9565895665155073E-2</v>
@@ -3409,16 +3400,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E99">
         <v>7.1308472458506647E-2</v>
@@ -3438,16 +3429,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>7.067058891303872E-2</v>
@@ -3467,16 +3458,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>6.5829455138791626E-2</v>
@@ -3496,16 +3487,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102">
         <v>6.6412483685326554E-2</v>
@@ -3525,16 +3516,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E103">
         <v>6.9079259965868292E-2</v>
@@ -3554,16 +3545,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E104">
         <v>3.1710756620347306E-3</v>
@@ -3583,16 +3574,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105">
         <v>-4.9496684010883548E-4</v>
@@ -3612,16 +3603,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E106">
         <v>3.3262168674484823E-4</v>
@@ -3641,16 +3632,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E107">
         <v>6.8956541242898073E-2</v>
@@ -3670,16 +3661,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E108">
         <v>7.0261066664474889E-2</v>
@@ -3699,16 +3690,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109">
         <v>6.9789400600230395E-2</v>
@@ -3728,16 +3719,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110">
         <v>3.6749223251267178E-2</v>
@@ -3757,16 +3748,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E111">
         <v>3.916627850812561E-2</v>
@@ -3786,16 +3777,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112">
         <v>3.8887483599233455E-2</v>
@@ -3815,16 +3806,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E113">
         <v>6.7607656436278848E-2</v>
@@ -3844,16 +3835,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E114">
         <v>6.7821046118998682E-2</v>
@@ -3873,16 +3864,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E115">
         <v>6.7359212150090497E-2</v>
@@ -3902,16 +3893,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E116">
         <v>6.2060173395247067E-2</v>
@@ -3931,16 +3922,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117">
         <v>6.4523951325984624E-2</v>
@@ -3960,16 +3951,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118">
         <v>6.7133208188513135E-2</v>
@@ -3989,16 +3980,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E119">
         <v>8.5741018468276937E-3</v>
@@ -4018,16 +4009,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E120">
         <v>7.845016443020358E-3</v>
@@ -4047,16 +4038,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E121">
         <v>7.0378262854810135E-3</v>
@@ -4076,16 +4067,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>5.7222705716171461E-2</v>
@@ -4105,16 +4096,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123">
         <v>5.9114082457218275E-2</v>
@@ -4134,16 +4125,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>6.0161434388235367E-2</v>
@@ -4163,16 +4154,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E125">
         <v>2.2224430992468961E-2</v>
@@ -4192,16 +4183,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>2.4324255322986699E-2</v>
@@ -4221,16 +4212,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>2.0643417993465203E-2</v>
@@ -4250,16 +4241,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E128">
         <v>5.629346355734282E-2</v>
@@ -4279,16 +4270,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E129">
         <v>5.9129722980598536E-2</v>
@@ -4308,16 +4299,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E130">
         <v>6.4021027205188374E-2</v>
@@ -4337,16 +4328,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131">
         <v>5.5201521727020884E-2</v>
@@ -4366,16 +4357,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E132">
         <v>5.6752104437593716E-2</v>
@@ -4395,16 +4386,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E133">
         <v>6.5027260965699885E-2</v>
@@ -4424,16 +4415,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134">
         <v>-2.2326879349804244E-3</v>
@@ -4453,16 +4444,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E135">
         <v>-5.139013127167468E-3</v>
@@ -4482,16 +4473,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E136">
         <v>-5.0332286897159058E-3</v>
@@ -4511,16 +4502,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <v>5.9375557626458533E-2</v>
@@ -4540,16 +4531,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138">
         <v>6.0068985084435929E-2</v>
@@ -4569,16 +4560,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E139">
         <v>6.5916678306829207E-2</v>
@@ -4598,16 +4589,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E140">
         <v>2.8267336944270107E-2</v>
@@ -4627,16 +4618,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E141">
         <v>2.6932931156473019E-2</v>
@@ -4656,16 +4647,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E142">
         <v>2.528330971898704E-2</v>
@@ -4685,16 +4676,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E143">
         <v>5.3862840894248511E-2</v>
@@ -4714,16 +4705,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E144">
         <v>6.3197044692339208E-2</v>
@@ -4743,16 +4734,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E145">
         <v>6.7118601044682841E-2</v>
@@ -4772,16 +4763,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E146">
         <v>5.4442914117368582E-2</v>
@@ -4801,16 +4792,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E147">
         <v>5.9531759785807804E-2</v>
@@ -4830,16 +4821,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E148">
         <v>5.970824183730674E-2</v>
@@ -4859,16 +4850,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E149">
         <v>-1.1408551249154693E-3</v>
@@ -4888,16 +4879,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E150">
         <v>-1.0670594128921458E-3</v>
@@ -4917,16 +4908,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E151">
         <v>-2.8075528127643021E-3</v>
@@ -4946,16 +4937,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152">
         <v>5.5620135813910461E-2</v>
@@ -4975,16 +4966,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E153">
         <v>5.5823851032048087E-2</v>
@@ -5004,16 +4995,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154">
         <v>5.3584111731079062E-2</v>
@@ -5033,16 +5024,16 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155">
         <v>1.3724854596869059E-2</v>
@@ -5062,16 +5053,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156">
         <v>1.3179728829913138E-2</v>
@@ -5091,16 +5082,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>1.3252173621485643E-2</v>
@@ -5120,16 +5111,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E158">
         <v>6.0104458067372926E-2</v>
@@ -5149,16 +5140,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E159">
         <v>5.6879130357017638E-2</v>
@@ -5178,16 +5169,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E160">
         <v>5.2063417974597508E-2</v>
@@ -5207,16 +5198,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161">
         <v>5.8485207741579587E-2</v>
@@ -5236,16 +5227,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E162">
         <v>5.6740245771823641E-2</v>
@@ -5265,16 +5256,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163">
         <v>5.4344044488412339E-2</v>
@@ -5294,16 +5285,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
         <v>58</v>
-      </c>
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" t="s">
-        <v>61</v>
       </c>
       <c r="E164">
         <v>6.0247809522981116E-2</v>
@@ -5323,16 +5314,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E165">
         <v>5.7140506241195307E-2</v>
@@ -5352,16 +5343,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E166">
         <v>5.1440427129241059E-2</v>
@@ -5381,16 +5372,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E167">
         <v>6.0026158443624592E-2</v>
@@ -5410,16 +5401,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E168">
         <v>5.7084913552129621E-2</v>
@@ -5439,16 +5430,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E169">
         <v>5.2240842263732011E-2</v>
@@ -5468,16 +5459,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E170">
         <v>1.5331896489237384E-2</v>
@@ -5497,16 +5488,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E171">
         <v>1.3177138257244826E-2</v>
@@ -5526,16 +5517,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E172">
         <v>1.5599016757284437E-2</v>
@@ -5555,16 +5546,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E173">
         <v>5.7133220575182386E-2</v>
@@ -5584,16 +5575,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E174">
         <v>5.6090398385542951E-2</v>
@@ -5613,16 +5604,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E175">
         <v>5.0539283818908307E-2</v>
@@ -5642,16 +5633,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E176">
         <v>4.8478624476939326E-2</v>
@@ -5671,16 +5662,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E177">
         <v>5.4436218646616782E-2</v>
@@ -5700,16 +5691,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E178">
         <v>5.1601013619175365E-2</v>
@@ -5729,16 +5720,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E179">
         <v>5.403924165750254E-2</v>
@@ -5758,16 +5749,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E180">
         <v>5.4498906081113789E-2</v>
@@ -5787,16 +5778,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E181">
         <v>4.6614557384121555E-2</v>
@@ -5816,16 +5807,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E182">
         <v>5.2591407673723889E-2</v>
@@ -5845,16 +5836,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E183">
         <v>5.2870377586207676E-2</v>
@@ -5874,16 +5865,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E184">
         <v>5.4411982300316082E-2</v>
@@ -5903,16 +5894,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E185">
         <v>1.7792577643841664E-2</v>
@@ -5932,16 +5923,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E186">
         <v>2.0690353150249103E-2</v>
@@ -5961,16 +5952,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E187">
         <v>2.2054382123152128E-2</v>
@@ -5990,16 +5981,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E188">
         <v>5.5933437530743146E-2</v>
@@ -6019,16 +6010,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E189">
         <v>5.9958034572575584E-2</v>
@@ -6048,16 +6039,16 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E190">
         <v>5.5920758773155665E-2</v>
@@ -6077,16 +6068,16 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E191">
         <v>5.2200281552731875E-2</v>
@@ -6106,16 +6097,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E192">
         <v>5.375702022943836E-2</v>
@@ -6135,16 +6126,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E193">
         <v>5.7191427417187114E-2</v>
@@ -6164,16 +6155,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E194">
         <v>5.3701394793610191E-2</v>
@@ -6193,16 +6184,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E195">
         <v>5.534115346997457E-2</v>
@@ -6222,16 +6213,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196">
         <v>5.441641422576636E-2</v>
@@ -6251,16 +6242,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>56</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
         <v>59</v>
-      </c>
-      <c r="B197" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" t="s">
-        <v>62</v>
       </c>
       <c r="E197">
         <v>5.1016874605964747E-2</v>
@@ -6280,16 +6271,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E198">
         <v>5.5950000677526195E-2</v>
@@ -6309,16 +6300,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E199">
         <v>5.2674136188555487E-2</v>
@@ -6338,16 +6329,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E200">
         <v>2.1791301508611208E-2</v>
@@ -6367,16 +6358,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E201">
         <v>2.6699549411759133E-2</v>
@@ -6396,16 +6387,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E202">
         <v>2.8189724408309934E-2</v>
@@ -6425,16 +6416,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E203">
         <v>5.194295342604717E-2</v>
@@ -6454,16 +6445,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E204">
         <v>5.5594703154851474E-2</v>
@@ -6483,16 +6474,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E205">
         <v>5.6780178190901254E-2</v>
@@ -6512,16 +6503,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E206">
         <v>5.3119464328276439E-2</v>
@@ -6541,16 +6532,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E207">
         <v>5.7767719884286882E-2</v>
@@ -6570,16 +6561,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E208">
         <v>5.8497184543767546E-2</v>
@@ -6599,16 +6590,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E209">
         <v>5.6089491684997189E-2</v>
@@ -6628,16 +6619,16 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E210">
         <v>5.5344122962928302E-2</v>
@@ -6657,16 +6648,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E211">
         <v>5.844118734179115E-2</v>
@@ -6686,16 +6677,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E212">
         <v>4.6555209135732085E-2</v>
@@ -6715,16 +6706,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E213">
         <v>5.0856201214459114E-2</v>
@@ -6744,16 +6735,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E214">
         <v>5.5747863199552952E-2</v>
@@ -6773,16 +6764,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E215">
         <v>1.1534843646682089E-2</v>
@@ -6802,16 +6793,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E216">
         <v>1.4121804150030984E-2</v>
@@ -6831,16 +6822,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E217">
         <v>1.1693032005934263E-2</v>
@@ -6860,16 +6851,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E218">
         <v>5.0889063604257441E-2</v>
@@ -6889,16 +6880,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E219">
         <v>5.7536765595539677E-2</v>
@@ -6918,16 +6909,16 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E220">
         <v>5.6214957276340051E-2</v>
@@ -6947,16 +6938,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E221">
         <v>4.2436950216345519E-2</v>
@@ -6976,16 +6967,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E222">
         <v>4.8272806501482496E-2</v>
@@ -7005,16 +6996,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E223">
         <v>5.2626120481621762E-2</v>
@@ -7034,16 +7025,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D224" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E224">
         <v>4.392463342591222E-2</v>
@@ -7063,16 +7054,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D225" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E225">
         <v>4.6722221246526044E-2</v>
@@ -7092,16 +7083,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>57</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
         <v>60</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>9</v>
-      </c>
-      <c r="D226" t="s">
-        <v>63</v>
       </c>
       <c r="E226">
         <v>5.1496363243685464E-2</v>
@@ -7121,16 +7112,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E227">
         <v>4.5773568726735034E-2</v>
@@ -7150,16 +7141,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E228">
         <v>5.2850732846501713E-2</v>
@@ -7179,16 +7170,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E229">
         <v>5.0174928766215876E-2</v>
@@ -7208,16 +7199,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E230">
         <v>9.5798871162770197E-3</v>
@@ -7237,16 +7228,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E231">
         <v>1.1809193837455384E-2</v>
@@ -7266,16 +7257,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E232">
         <v>7.6239232395569666E-3</v>
@@ -7295,16 +7286,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E233">
         <v>4.0596084067877534E-2</v>
@@ -7324,16 +7315,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E234">
         <v>4.7904393706040625E-2</v>
@@ -7353,16 +7344,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E235">
         <v>5.1011589243424929E-2</v>
@@ -7382,16 +7373,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E236">
         <v>3.6838470925049972E-2</v>
@@ -7411,16 +7402,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E237">
         <v>4.4664769379963894E-2</v>
@@ -7440,16 +7431,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E238">
         <v>4.9133496646237375E-2</v>
@@ -7469,16 +7460,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D239" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E239">
         <v>3.7154135211400242E-2</v>
@@ -7498,16 +7489,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D240" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E240">
         <v>4.2992657931457116E-2</v>
@@ -7527,16 +7518,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D241" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E241">
         <v>4.6208431660239732E-2</v>
